--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2801725.667897395</v>
+        <v>2799838.086380994</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>593985.9545872631</v>
+        <v>746821.9627281181</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673436</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>330.9580493442709</v>
       </c>
       <c r="H2" t="n">
-        <v>107.301303802437</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229341</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>196.7218456862863</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>171.7498680634317</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -899,16 +899,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>123.2264323245079</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>159.5664594848155</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>6.165601831728317</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>23.05331571552192</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>43.80431246487684</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>165.2346790503165</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,13 +1294,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>128.0537032279749</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>29.20797801306492</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.517607207784073</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1579,10 +1579,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>13.1147197498768</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.4106056624397</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>118.4898845065121</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>62.89058652595989</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>118.4898845065121</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0.857681889016134</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2609,13 +2609,13 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>183.1796758466999</v>
       </c>
       <c r="T28" t="n">
-        <v>139.1537278750044</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.042680388410012</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437436</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348207</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897924</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571509</v>
+        <v>55.21598883571502</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752359</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550464</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298324</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700205</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952711</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080341</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604803</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235379</v>
+        <v>91.07146653910246</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169296</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3253,7 +3253,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I35" t="n">
         <v>81.77913505274074</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789549</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.2778500677821</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>991.2778500677821</v>
+        <v>906.9212171249367</v>
       </c>
       <c r="D2" t="n">
-        <v>991.2778500677821</v>
+        <v>548.6555185181862</v>
       </c>
       <c r="E2" t="n">
-        <v>991.2778500677821</v>
+        <v>548.6555185181862</v>
       </c>
       <c r="F2" t="n">
-        <v>580.2919452781746</v>
+        <v>541.7100177689828</v>
       </c>
       <c r="G2" t="n">
-        <v>162.3281371763615</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733129</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1717.512263598976</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1364.743608328862</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>991.2778500677821</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>991.2778500677821</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4404,46 +4404,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>368.8844281164668</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>773.5003462121387</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1297.64725977017</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1851.373795869721</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2291.509718890065</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2627.754532504894</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>372.9958041606071</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>554.6442689908469</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>554.3221432721089</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>185.3596263316971</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>185.3596263316971</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>185.3596263316971</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>178.4141255824937</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186807</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="V5" t="n">
-        <v>2057.295728843236</v>
+        <v>2317.336182086431</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.527073573122</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="X5" t="n">
-        <v>1331.061315312042</v>
+        <v>1964.567526816317</v>
       </c>
       <c r="Y5" t="n">
-        <v>940.9219833362306</v>
+        <v>1574.428194840505</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>217.9192350259437</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="C7" t="n">
-        <v>217.9192350259437</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="D7" t="n">
-        <v>217.9192350259437</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="E7" t="n">
-        <v>217.9192350259437</v>
+        <v>269.7756312415667</v>
       </c>
       <c r="F7" t="n">
-        <v>217.9192350259437</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>122.8856837436563</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694738</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694738</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y7" t="n">
-        <v>217.9192350259437</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>818.8658378359718</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2652.90231075067</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2652.90231075067</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2652.90231075067</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2652.90231075067</v>
+        <v>2080.404530622508</v>
       </c>
       <c r="V8" t="n">
-        <v>2321.839423407099</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="W8" t="n">
-        <v>1969.070768136985</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="X8" t="n">
-        <v>1595.605009875905</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="Y8" t="n">
-        <v>1205.465677900094</v>
+        <v>1749.341643278937</v>
       </c>
     </row>
     <row r="9">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>598.7818092286818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>598.7818092286818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>598.7818092286818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>598.7818092286818</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.7922583306645</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
@@ -5039,7 +5039,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514079</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>646.7193686662753</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M12" t="n">
-        <v>967.0546881959771</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N12" t="n">
-        <v>1771.466266460128</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>717.1440534185986</v>
+        <v>743.3431626812556</v>
       </c>
       <c r="C13" t="n">
-        <v>548.2078704906917</v>
+        <v>713.8401545872507</v>
       </c>
       <c r="D13" t="n">
-        <v>398.0912310783559</v>
+        <v>563.723515174915</v>
       </c>
       <c r="E13" t="n">
-        <v>250.1781374959628</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="F13" t="n">
-        <v>250.1781374959628</v>
+        <v>415.8104215925218</v>
       </c>
       <c r="G13" t="n">
         <v>247.6350999123426</v>
@@ -5200,7 +5200,7 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799364</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488383</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488383</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488383</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X13" t="n">
-        <v>898.7925182488383</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y13" t="n">
-        <v>898.7925182488383</v>
+        <v>743.3431626812556</v>
       </c>
     </row>
     <row r="14">
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>802.0403666355639</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N15" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>713.5778697504954</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>544.6416868225886</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>394.5250474102528</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102528</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5455,31 +5455,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1485.66907889136</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1485.66907889136</v>
+        <v>1368.198487060489</v>
       </c>
       <c r="T16" t="n">
-        <v>1485.66907889136</v>
+        <v>1368.198487060489</v>
       </c>
       <c r="U16" t="n">
-        <v>1485.66907889136</v>
+        <v>1368.198487060489</v>
       </c>
       <c r="V16" t="n">
-        <v>1230.984590685473</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="W16" t="n">
-        <v>941.5674206485128</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X16" t="n">
-        <v>713.5778697504954</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y16" t="n">
-        <v>713.5778697504954</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5489,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5595,16 +5595,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>381.3300194168667</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M18" t="n">
-        <v>1149.698165809328</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028586</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1379.229518531122</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1379.229518531122</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1090.100879744681</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>835.4163915387937</v>
+        <v>900.6098968490687</v>
       </c>
       <c r="W19" t="n">
-        <v>545.9992215018332</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>611.1927268121082</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028586</v>
+        <v>390.400147668578</v>
       </c>
     </row>
     <row r="20">
@@ -5750,10 +5750,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5829,16 +5829,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5908,16 +5908,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241959</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,7 +5926,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557903</v>
@@ -5935,22 +5935,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1379.229518531123</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
@@ -5987,52 +5987,52 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>323.6581146605669</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>323.6581146605669</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605669</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C25" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D25" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471195</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473456</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.129915131015</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.001276344574</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>754.3167881386867</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>464.8996181017262</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>464.8996181017262</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>244.1070389581961</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,13 +6245,13 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
@@ -6260,7 +6260,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>263.5382936126482</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605669</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1313.886294955175</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>835.4163915387941</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.009670603816</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6449,25 +6449,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6540,16 +6540,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>564.3668169895387</v>
+        <v>638.4603630227177</v>
       </c>
       <c r="C31" t="n">
-        <v>451.1914993430024</v>
+        <v>525.2850453761812</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430024</v>
+        <v>430.9292712452161</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430024</v>
+        <v>338.7770429441937</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264627</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276539</v>
+        <v>247.6479607276537</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569678</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.251007986467</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933498</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667502</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962043</v>
+        <v>997.6688721962048</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286023</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353691</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056073</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899269</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096191</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167068</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661997</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737481</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818906</v>
+        <v>902.6804289818921</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652438</v>
+        <v>730.4517433652454</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030842</v>
+        <v>638.4603630227177</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,25 +6683,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108336</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229679</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506732</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
         <v>221.5295092103129</v>
@@ -6853,16 +6853,16 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6871,19 +6871,19 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045213</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,25 +7011,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>629.3975440735811</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
@@ -7096,7 +7096,7 @@
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,13 +7160,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
@@ -7175,16 +7175,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7251,22 +7251,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>629.3975440735811</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1433.809122337732</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506717</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504503</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
@@ -7330,13 +7330,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7345,16 +7345,16 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S40" t="n">
         <v>1865.165908942116</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7488,16 +7488,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="44">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,7 +7637,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
@@ -7646,13 +7646,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7840,16 +7840,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8781,10 +8781,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9255,7 +9255,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>198.5685309419536</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>202.8611258896129</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10188,7 +10188,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10677,10 +10677,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,10 +10902,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,10 +10914,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,7 +11136,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>138.0388430855629</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9759612555935</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23482,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>96.84963265391599</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>68.51020432116354</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23935,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>79.43092547709114</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>189.2470567978681</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>79.43092547709114</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24412,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>220.6898791693731</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633775</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>14.74113413690332</v>
       </c>
       <c r="T28" t="n">
-        <v>82.39383318338474</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,22 +24835,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>123.5860431649704</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965547</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801228</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>72.30993018443537</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-9.683365348466374e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.989519660128281e-13</v>
       </c>
     </row>
     <row r="35">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="7">
@@ -26314,43 +26314,43 @@
         <v>615781.3273982129</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065631</v>
-      </c>
-      <c r="F2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="G2" t="n">
-        <v>586543.5896065633</v>
       </c>
       <c r="H2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="K2" t="n">
-        <v>610233.2060179039</v>
+        <v>610233.2060179056</v>
       </c>
       <c r="L2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="M2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="N2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="O2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="P2" t="n">
         <v>615781.3273982125</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284546</v>
+        <v>44162.60530284559</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086705</v>
+        <v>10342.90680086695</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284549</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758286</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.7936905758876</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.7936905758825</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758875</v>
+        <v>787.7936905758785</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758824</v>
+        <v>787.7936905758372</v>
       </c>
       <c r="K4" t="n">
-        <v>18952.41620477234</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189631</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189635</v>
+      </c>
+      <c r="O4" t="n">
         <v>23206.58093189636</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>23206.58093189634</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189634</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26494,13 +26494,13 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022278</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="M5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="M5" t="n">
-        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-196104.7690603602</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.110154184</v>
+        <v>393863.1101541839</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541839</v>
+        <v>393863.1101541844</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962563</v>
+        <v>-31489.02563559772</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672705</v>
+        <v>493671.0108412986</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.4699672709</v>
+        <v>493671.0108412984</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.4699672705</v>
+        <v>493671.0108412983</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672706</v>
+        <v>493671.0108412982</v>
       </c>
       <c r="J6" t="n">
-        <v>317345.2507746776</v>
+        <v>317247.7916487054</v>
       </c>
       <c r="K6" t="n">
-        <v>450489.9759800633</v>
+        <v>450471.4822421305</v>
       </c>
       <c r="L6" t="n">
-        <v>484516.7338454239</v>
+        <v>484516.7338454236</v>
       </c>
       <c r="M6" t="n">
-        <v>360058.6254124533</v>
+        <v>360058.6254124534</v>
       </c>
       <c r="N6" t="n">
-        <v>494859.6406462904</v>
+        <v>494859.6406462906</v>
       </c>
       <c r="O6" t="n">
-        <v>494859.6406462906</v>
+        <v>494859.6406462909</v>
       </c>
       <c r="P6" t="n">
-        <v>450697.0353434453</v>
+        <v>450697.0353434452</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26787,7 +26787,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26926,16 +26926,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855682</v>
+        <v>55.20325662855699</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108382</v>
+        <v>12.92863350108369</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855686</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,13 +27163,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855682</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>82.82612067652411</v>
       </c>
       <c r="H2" t="n">
-        <v>216.6214689619201</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>89.56002855569142</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.83478528866308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,16 +27619,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>290.5577376962871</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>91.65770802347376</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>161.1442004273226</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>111.9123060768163</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,28 +27898,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>10.67409010993488</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>85.98948845797278</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>75.23878421646982</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>96.98140223010941</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28849,13 +28849,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855688</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29806,7 +29806,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>-1.815884897519829e-13</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-6.252776074688882e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,19 +31118,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>115.4815392304395</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,22 +31355,22 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>56.98116194942293</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,22 +31838,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>196.1430416967705</v>
+        <v>147.8809216101172</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>64.61606107314782</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>54.69678998811281</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -32470,7 +32470,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32561,7 +32561,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S23" t="n">
         <v>76.0697047810465</v>
@@ -32786,31 +32786,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32944,7 +32944,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N27" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33181,7 +33181,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33205,7 +33205,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
         <v>76.0697047810465</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>380.6284621420188</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33509,7 +33509,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33676,7 +33676,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
@@ -33734,25 +33734,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>213.9849829127208</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.0697047810465</v>
@@ -33971,25 +33971,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>213.9849829127208</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34220,7 +34220,7 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34381,7 +34381,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>242.1053372686591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730079</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>428.4290072203555</v>
+        <v>380.1668871337022</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>296.9020265967328</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35963,19 +35963,19 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>286.9827555116978</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36209,7 +36209,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>60.72709196759461</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N24" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556559</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187482</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>60.72709196759461</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N27" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556559</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187482</v>
+        <v>39.22569997187473</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303331</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>415.0406756005178</v>
@@ -36917,10 +36917,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>704.1994919700004</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941224</v>
+        <v>67.71102679412249</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084854</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075294</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341605</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491597</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043163</v>
+        <v>94.42895660043172</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37157,7 +37157,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
@@ -37242,10 +37242,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37324,7 +37324,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>537.5560127407024</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520623</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,10 +37479,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37619,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>537.5560127407024</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
@@ -37798,7 +37798,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R41" t="n">
         <v>59.8253897034981</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>415.0406756005178</v>
@@ -37868,7 +37868,7 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38014,7 +38014,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38190,7 +38190,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
